--- a/converter/data/xlsx/17.4. A SMJENA.XLSX
+++ b/converter/data/xlsx/17.4. A SMJENA.XLSX
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\RASPORED-2022\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{251F997D-B30F-46EA-8E6D-0248E6F8EE47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="599" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13740" tabRatio="599"/>
   </bookViews>
   <sheets>
     <sheet name="A" sheetId="1" r:id="rId1"/>
@@ -545,8 +539,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="44" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="44">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4087,6 +4081,153 @@
     </xf>
     <xf numFmtId="0" fontId="24" fillId="9" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="24" fillId="29" borderId="30" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="45" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="40" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="9" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="9" borderId="45" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="9" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="9" borderId="45" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="21" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="21" borderId="45" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="46" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="45" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="117" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="51" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="112" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="74" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="80" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="83" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="84" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="85" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="105" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="80" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="83" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="105" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="45" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="10" borderId="79" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="10" borderId="64" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="10" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="12" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="12" borderId="46" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="12" borderId="45" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="21" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="21" borderId="46" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="9" borderId="79" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="9" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="9" borderId="79" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="9" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="9" borderId="79" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="9" borderId="56" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="45" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="49" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="46" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="45" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="82" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="64" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="9" borderId="81" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -4096,171 +4237,24 @@
     <xf numFmtId="0" fontId="11" fillId="9" borderId="114" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="35" fillId="6" borderId="49" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="6" borderId="45" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="9" borderId="124" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="45" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="49" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="46" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="45" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="82" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="64" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="6" borderId="49" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="6" borderId="45" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="12" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="12" borderId="45" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="10" borderId="79" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="10" borderId="64" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="10" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="45" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="45" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="12" borderId="46" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="21" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="21" borderId="46" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="9" borderId="79" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="9" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="9" borderId="79" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="9" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="9" borderId="79" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="9" borderId="56" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="74" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="80" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="83" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="84" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="85" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="105" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="80" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="83" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="105" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="40" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="9" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="9" borderId="45" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="9" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="9" borderId="45" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="21" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="21" borderId="45" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="46" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="45" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="117" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="51" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="112" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="Normalno" xfId="0" builtinId="0"/>
-    <cellStyle name="Normalno 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="Obično 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="Obično 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Normalno 2" xfId="2"/>
+    <cellStyle name="Obično" xfId="0" builtinId="0"/>
+    <cellStyle name="Obično 2" xfId="1"/>
+    <cellStyle name="Obično 3" xfId="3"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -4309,7 +4303,7 @@
         <xdr:cNvPr id="3" name="Ravni poveznik sa strelicom 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4362,7 +4356,7 @@
         <xdr:cNvPr id="5" name="Ravni poveznik sa strelicom 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4415,7 +4409,7 @@
         <xdr:cNvPr id="7" name="Ravni poveznik sa strelicom 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4468,7 +4462,7 @@
         <xdr:cNvPr id="11" name="Ravni poveznik sa strelicom 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4521,7 +4515,7 @@
         <xdr:cNvPr id="13" name="Ravni poveznik sa strelicom 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4574,7 +4568,7 @@
         <xdr:cNvPr id="15" name="Ravni poveznik sa strelicom 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4627,7 +4621,7 @@
         <xdr:cNvPr id="17" name="Ravni poveznik sa strelicom 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000011000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000011000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4680,7 +4674,7 @@
         <xdr:cNvPr id="4" name="Ravni poveznik sa strelicom 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4733,7 +4727,7 @@
         <xdr:cNvPr id="6" name="Ravni poveznik sa strelicom 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4786,7 +4780,7 @@
         <xdr:cNvPr id="9" name="Ravni poveznik sa strelicom 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4839,7 +4833,7 @@
         <xdr:cNvPr id="16" name="Ravni poveznik sa strelicom 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000010000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4892,7 +4886,7 @@
         <xdr:cNvPr id="24" name="Ravni poveznik sa strelicom 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000018000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000018000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4945,7 +4939,7 @@
         <xdr:cNvPr id="33" name="Ravni poveznik sa strelicom 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000021000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000021000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4998,7 +4992,7 @@
         <xdr:cNvPr id="37" name="Ravni poveznik sa strelicom 36">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000025000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000025000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5051,7 +5045,7 @@
         <xdr:cNvPr id="39" name="Ravni poveznik sa strelicom 38">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000027000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000027000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5104,7 +5098,7 @@
         <xdr:cNvPr id="43" name="Ravni poveznik sa strelicom 42">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00002B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5157,7 +5151,7 @@
         <xdr:cNvPr id="51" name="Ravni poveznik sa strelicom 50">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000033000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000033000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5210,7 +5204,7 @@
         <xdr:cNvPr id="61" name="Ravni poveznik sa strelicom 60">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00003D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5263,7 +5257,7 @@
         <xdr:cNvPr id="34" name="Ravni poveznik sa strelicom 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000022000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000022000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5316,7 +5310,7 @@
         <xdr:cNvPr id="42" name="Ravni poveznik sa strelicom 41">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00002A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5369,7 +5363,7 @@
         <xdr:cNvPr id="8" name="Ravni poveznik sa strelicom 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5422,7 +5416,7 @@
         <xdr:cNvPr id="28" name="Ravni poveznik sa strelicom 27">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00001C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5475,7 +5469,7 @@
         <xdr:cNvPr id="30" name="Ravni poveznik sa strelicom 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00001E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5528,7 +5522,7 @@
         <xdr:cNvPr id="10" name="Ravni poveznik sa strelicom 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{255E128A-9D82-41CF-8D44-280C36884016}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{255E128A-9D82-41CF-8D44-280C36884016}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5581,7 +5575,7 @@
         <xdr:cNvPr id="14" name="Ravni poveznik sa strelicom 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C17EB74-115E-46BD-B10D-59C992F4BAC0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0C17EB74-115E-46BD-B10D-59C992F4BAC0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5634,7 +5628,7 @@
         <xdr:cNvPr id="19" name="Ravni poveznik sa strelicom 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4687B6E2-793F-4099-B72C-05C35EE0FF72}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4687B6E2-793F-4099-B72C-05C35EE0FF72}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5687,7 +5681,7 @@
         <xdr:cNvPr id="21" name="Ravni poveznik sa strelicom 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B1EC7BDD-31F0-42B4-A27F-2B42810776ED}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B1EC7BDD-31F0-42B4-A27F-2B42810776ED}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5740,7 +5734,7 @@
         <xdr:cNvPr id="23" name="Ravni poveznik sa strelicom 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D5F793C4-2463-4E3F-992F-750498AB2E5B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D5F793C4-2463-4E3F-992F-750498AB2E5B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5793,7 +5787,7 @@
         <xdr:cNvPr id="22" name="Ravni poveznik sa strelicom 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3CD3C46C-5B06-4A3A-8AFF-9258577221BD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3CD3C46C-5B06-4A3A-8AFF-9258577221BD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5832,7 +5826,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema sustava Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office tema">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -5874,7 +5868,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5906,27 +5900,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5958,24 +5934,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -6151,14 +6109,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AQ157"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="T16" sqref="T16"/>
+    <sheetView tabSelected="1" topLeftCell="B10" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="AH40" sqref="AH40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="41.7109375" customWidth="1"/>
     <col min="2" max="2" width="6.85546875" customWidth="1"/>
@@ -6197,107 +6155,107 @@
     <col min="39" max="40" width="4.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" ht="27" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="584" t="s">
+    <row r="1" spans="1:43" ht="27" thickBot="1">
+      <c r="A1" s="568" t="s">
         <v>93</v>
       </c>
-      <c r="B1" s="584"/>
-      <c r="C1" s="584"/>
-      <c r="D1" s="584"/>
-      <c r="E1" s="584"/>
-      <c r="F1" s="584"/>
-      <c r="G1" s="584"/>
-      <c r="H1" s="584"/>
-      <c r="I1" s="584"/>
-      <c r="J1" s="584"/>
-      <c r="K1" s="584"/>
-      <c r="L1" s="584"/>
-      <c r="M1" s="584"/>
-      <c r="N1" s="584"/>
-      <c r="O1" s="584"/>
-      <c r="P1" s="584"/>
-      <c r="Q1" s="584"/>
-      <c r="R1" s="584"/>
-      <c r="S1" s="584"/>
-      <c r="T1" s="584"/>
-      <c r="U1" s="584"/>
-      <c r="V1" s="584"/>
-      <c r="W1" s="584"/>
-      <c r="X1" s="584"/>
-      <c r="Y1" s="584"/>
-      <c r="Z1" s="584"/>
-      <c r="AA1" s="584"/>
-      <c r="AB1" s="584"/>
-      <c r="AC1" s="584"/>
-      <c r="AD1" s="584"/>
-      <c r="AE1" s="584"/>
-      <c r="AF1" s="584"/>
-      <c r="AG1" s="584"/>
-      <c r="AH1" s="584"/>
-      <c r="AI1" s="584"/>
-      <c r="AJ1" s="584"/>
-      <c r="AK1" s="584"/>
-      <c r="AL1" s="584"/>
-      <c r="AM1" s="584"/>
+      <c r="B1" s="568"/>
+      <c r="C1" s="568"/>
+      <c r="D1" s="568"/>
+      <c r="E1" s="568"/>
+      <c r="F1" s="568"/>
+      <c r="G1" s="568"/>
+      <c r="H1" s="568"/>
+      <c r="I1" s="568"/>
+      <c r="J1" s="568"/>
+      <c r="K1" s="568"/>
+      <c r="L1" s="568"/>
+      <c r="M1" s="568"/>
+      <c r="N1" s="568"/>
+      <c r="O1" s="568"/>
+      <c r="P1" s="568"/>
+      <c r="Q1" s="568"/>
+      <c r="R1" s="568"/>
+      <c r="S1" s="568"/>
+      <c r="T1" s="568"/>
+      <c r="U1" s="568"/>
+      <c r="V1" s="568"/>
+      <c r="W1" s="568"/>
+      <c r="X1" s="568"/>
+      <c r="Y1" s="568"/>
+      <c r="Z1" s="568"/>
+      <c r="AA1" s="568"/>
+      <c r="AB1" s="568"/>
+      <c r="AC1" s="568"/>
+      <c r="AD1" s="568"/>
+      <c r="AE1" s="568"/>
+      <c r="AF1" s="568"/>
+      <c r="AG1" s="568"/>
+      <c r="AH1" s="568"/>
+      <c r="AI1" s="568"/>
+      <c r="AJ1" s="568"/>
+      <c r="AK1" s="568"/>
+      <c r="AL1" s="568"/>
+      <c r="AM1" s="568"/>
       <c r="AN1" s="507"/>
       <c r="AO1" s="1"/>
     </row>
-    <row r="2" spans="1:43" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:43" ht="18.75" thickBot="1">
       <c r="A2" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="B2" s="585" t="s">
+      <c r="B2" s="569" t="s">
         <v>94</v>
       </c>
-      <c r="C2" s="586"/>
-      <c r="D2" s="586"/>
-      <c r="E2" s="586"/>
-      <c r="F2" s="586"/>
-      <c r="G2" s="586"/>
-      <c r="H2" s="587"/>
-      <c r="I2" s="588" t="s">
+      <c r="C2" s="570"/>
+      <c r="D2" s="570"/>
+      <c r="E2" s="570"/>
+      <c r="F2" s="570"/>
+      <c r="G2" s="570"/>
+      <c r="H2" s="571"/>
+      <c r="I2" s="572" t="s">
         <v>0</v>
       </c>
-      <c r="J2" s="586"/>
-      <c r="K2" s="586"/>
-      <c r="L2" s="586"/>
-      <c r="M2" s="586"/>
-      <c r="N2" s="586"/>
-      <c r="O2" s="589"/>
+      <c r="J2" s="570"/>
+      <c r="K2" s="570"/>
+      <c r="L2" s="570"/>
+      <c r="M2" s="570"/>
+      <c r="N2" s="570"/>
+      <c r="O2" s="573"/>
       <c r="P2" s="283"/>
-      <c r="Q2" s="590" t="s">
+      <c r="Q2" s="574" t="s">
         <v>1</v>
       </c>
-      <c r="R2" s="586"/>
-      <c r="S2" s="586"/>
-      <c r="T2" s="586"/>
-      <c r="U2" s="586"/>
-      <c r="V2" s="586"/>
-      <c r="W2" s="589"/>
+      <c r="R2" s="570"/>
+      <c r="S2" s="570"/>
+      <c r="T2" s="570"/>
+      <c r="U2" s="570"/>
+      <c r="V2" s="570"/>
+      <c r="W2" s="573"/>
       <c r="X2" s="283"/>
-      <c r="Y2" s="588" t="s">
+      <c r="Y2" s="572" t="s">
         <v>2</v>
       </c>
-      <c r="Z2" s="586"/>
-      <c r="AA2" s="586"/>
-      <c r="AB2" s="586"/>
-      <c r="AC2" s="586"/>
-      <c r="AD2" s="586"/>
-      <c r="AE2" s="589"/>
+      <c r="Z2" s="570"/>
+      <c r="AA2" s="570"/>
+      <c r="AB2" s="570"/>
+      <c r="AC2" s="570"/>
+      <c r="AD2" s="570"/>
+      <c r="AE2" s="573"/>
       <c r="AF2" s="283"/>
-      <c r="AG2" s="585" t="s">
+      <c r="AG2" s="569" t="s">
         <v>3</v>
       </c>
-      <c r="AH2" s="591"/>
-      <c r="AI2" s="591"/>
-      <c r="AJ2" s="591"/>
-      <c r="AK2" s="591"/>
-      <c r="AL2" s="591"/>
-      <c r="AM2" s="592"/>
+      <c r="AH2" s="575"/>
+      <c r="AI2" s="575"/>
+      <c r="AJ2" s="575"/>
+      <c r="AK2" s="575"/>
+      <c r="AL2" s="575"/>
+      <c r="AM2" s="576"/>
       <c r="AN2" s="510"/>
       <c r="AO2" s="1"/>
     </row>
-    <row r="3" spans="1:43" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:43" ht="16.5" thickBot="1">
       <c r="A3" s="10" t="s">
         <v>4</v>
       </c>
@@ -6420,7 +6378,7 @@
       </c>
       <c r="AO3" s="1"/>
     </row>
-    <row r="4" spans="1:43" ht="18.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:43" ht="18.75" thickTop="1">
       <c r="A4" s="33" t="s">
         <v>68</v>
       </c>
@@ -6503,7 +6461,7 @@
       <c r="AN4" s="524"/>
       <c r="AO4" s="1"/>
     </row>
-    <row r="5" spans="1:43" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:43" ht="18" customHeight="1">
       <c r="A5" s="158" t="s">
         <v>44</v>
       </c>
@@ -6586,7 +6544,7 @@
       <c r="AN5" s="525"/>
       <c r="AO5" s="18"/>
     </row>
-    <row r="6" spans="1:43" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:43" ht="18" customHeight="1" thickBot="1">
       <c r="A6" s="157" t="s">
         <v>60</v>
       </c>
@@ -6645,7 +6603,7 @@
       <c r="AN6" s="526"/>
       <c r="AO6" s="18"/>
     </row>
-    <row r="7" spans="1:43" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:43" ht="17.25" customHeight="1">
       <c r="A7" s="518" t="s">
         <v>61</v>
       </c>
@@ -6698,7 +6656,7 @@
       <c r="AN7" s="524"/>
       <c r="AO7" s="18"/>
     </row>
-    <row r="8" spans="1:43" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:43" ht="17.25" customHeight="1">
       <c r="A8" s="34" t="s">
         <v>69</v>
       </c>
@@ -6783,7 +6741,7 @@
       </c>
       <c r="AO8" s="18"/>
     </row>
-    <row r="9" spans="1:43" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:43" ht="17.25" customHeight="1">
       <c r="A9" s="519" t="s">
         <v>48</v>
       </c>
@@ -6803,10 +6761,10 @@
       <c r="M9" s="381" t="s">
         <v>81</v>
       </c>
-      <c r="N9" s="571" t="s">
+      <c r="N9" s="552" t="s">
         <v>106</v>
       </c>
-      <c r="O9" s="572"/>
+      <c r="O9" s="553"/>
       <c r="P9" s="299"/>
       <c r="Q9" s="46" t="s">
         <v>88</v>
@@ -6864,7 +6822,7 @@
       <c r="AN9" s="527"/>
       <c r="AO9" s="409"/>
     </row>
-    <row r="10" spans="1:43" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:43" ht="18" customHeight="1">
       <c r="A10" s="12" t="s">
         <v>120</v>
       </c>
@@ -6880,10 +6838,10 @@
       <c r="K10" s="43"/>
       <c r="L10" s="39"/>
       <c r="M10" s="39"/>
-      <c r="N10" s="573" t="s">
+      <c r="N10" s="577" t="s">
         <v>106</v>
       </c>
-      <c r="O10" s="574"/>
+      <c r="O10" s="578"/>
       <c r="P10" s="130" t="s">
         <v>79</v>
       </c>
@@ -6947,7 +6905,7 @@
       <c r="AN10" s="525"/>
       <c r="AO10" s="18"/>
     </row>
-    <row r="11" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:43" ht="15.75" customHeight="1">
       <c r="A11" s="520" t="s">
         <v>65</v>
       </c>
@@ -7004,7 +6962,7 @@
       <c r="AN11" s="527"/>
       <c r="AO11" s="18"/>
     </row>
-    <row r="12" spans="1:43" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:43" ht="15.75" customHeight="1" thickBot="1">
       <c r="A12" s="474" t="s">
         <v>6</v>
       </c>
@@ -7012,10 +6970,10 @@
       <c r="C12" s="501">
         <v>15</v>
       </c>
-      <c r="D12" s="580" t="s">
+      <c r="D12" s="589" t="s">
         <v>109</v>
       </c>
-      <c r="E12" s="581"/>
+      <c r="E12" s="590"/>
       <c r="F12" s="376" t="s">
         <v>36</v>
       </c>
@@ -7073,7 +7031,7 @@
       <c r="AN12" s="528"/>
       <c r="AO12" s="1"/>
     </row>
-    <row r="13" spans="1:43" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:43" ht="18.75" customHeight="1">
       <c r="A13" s="518" t="s">
         <v>7</v>
       </c>
@@ -7140,7 +7098,7 @@
       <c r="AN13" s="525"/>
       <c r="AO13" s="1"/>
     </row>
-    <row r="14" spans="1:43" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:43" ht="18.75" customHeight="1">
       <c r="A14" s="518" t="s">
         <v>63</v>
       </c>
@@ -7203,7 +7161,7 @@
       <c r="AN14" s="527"/>
       <c r="AO14" s="1"/>
     </row>
-    <row r="15" spans="1:43" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:43" ht="18.75" customHeight="1">
       <c r="A15" s="518" t="s">
         <v>52</v>
       </c>
@@ -7237,8 +7195,8 @@
       <c r="AA15" s="39"/>
       <c r="AB15" s="39"/>
       <c r="AC15" s="39"/>
-      <c r="AD15" s="571"/>
-      <c r="AE15" s="572"/>
+      <c r="AD15" s="552"/>
+      <c r="AE15" s="553"/>
       <c r="AF15" s="305"/>
       <c r="AG15" s="264"/>
       <c r="AH15" s="39"/>
@@ -7250,7 +7208,7 @@
       <c r="AN15" s="525"/>
       <c r="AO15" s="1"/>
     </row>
-    <row r="16" spans="1:43" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:43" ht="18.75" customHeight="1">
       <c r="A16" s="518" t="s">
         <v>8</v>
       </c>
@@ -7317,7 +7275,7 @@
       <c r="AP16" s="1"/>
       <c r="AQ16" s="1"/>
     </row>
-    <row r="17" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:43" ht="15.75" customHeight="1">
       <c r="A17" s="519" t="s">
         <v>9</v>
       </c>
@@ -7380,7 +7338,7 @@
       <c r="AP17" s="1"/>
       <c r="AQ17" s="1"/>
     </row>
-    <row r="18" spans="1:43" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:43" ht="17.25" customHeight="1">
       <c r="A18" s="519" t="s">
         <v>10</v>
       </c>
@@ -7439,7 +7397,7 @@
       <c r="AP18" s="1"/>
       <c r="AQ18" s="1"/>
     </row>
-    <row r="19" spans="1:43" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:43" ht="17.25" customHeight="1">
       <c r="A19" s="11" t="s">
         <v>39</v>
       </c>
@@ -7490,7 +7448,7 @@
       <c r="AP19" s="1"/>
       <c r="AQ19" s="1"/>
     </row>
-    <row r="20" spans="1:43" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:43" ht="17.25" customHeight="1">
       <c r="A20" s="11" t="s">
         <v>92</v>
       </c>
@@ -7545,7 +7503,7 @@
       <c r="AP20" s="1"/>
       <c r="AQ20" s="1"/>
     </row>
-    <row r="21" spans="1:43" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:43" ht="16.5" customHeight="1">
       <c r="A21" s="519" t="s">
         <v>55</v>
       </c>
@@ -7612,7 +7570,7 @@
       <c r="AP21" s="1"/>
       <c r="AQ21" s="1"/>
     </row>
-    <row r="22" spans="1:43" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:43" ht="15.75" customHeight="1" thickBot="1">
       <c r="A22" s="473" t="s">
         <v>58</v>
       </c>
@@ -7685,7 +7643,7 @@
       <c r="AP22" s="18"/>
       <c r="AQ22" s="1"/>
     </row>
-    <row r="23" spans="1:43" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:43" ht="19.5" customHeight="1">
       <c r="A23" s="473" t="s">
         <v>50</v>
       </c>
@@ -7737,7 +7695,9 @@
       <c r="Y23" s="85"/>
       <c r="Z23" s="57"/>
       <c r="AA23" s="57"/>
-      <c r="AB23" s="57"/>
+      <c r="AB23" s="57" t="s">
+        <v>77</v>
+      </c>
       <c r="AC23" s="57" t="s">
         <v>77</v>
       </c>
@@ -7755,9 +7715,7 @@
       <c r="AI23" s="57" t="s">
         <v>77</v>
       </c>
-      <c r="AJ23" s="57" t="s">
-        <v>77</v>
-      </c>
+      <c r="AJ23" s="57"/>
       <c r="AK23" s="57"/>
       <c r="AL23" s="57"/>
       <c r="AM23" s="63"/>
@@ -7766,7 +7724,7 @@
       <c r="AP23" s="1"/>
       <c r="AQ23" s="18"/>
     </row>
-    <row r="24" spans="1:43" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:43" ht="19.5" customHeight="1">
       <c r="A24" s="473" t="s">
         <v>62</v>
       </c>
@@ -7819,7 +7777,7 @@
       <c r="AP24" s="1"/>
       <c r="AQ24" s="18"/>
     </row>
-    <row r="25" spans="1:43" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:43" ht="17.25" customHeight="1">
       <c r="A25" s="473" t="s">
         <v>11</v>
       </c>
@@ -7884,7 +7842,7 @@
       <c r="AP25" s="18"/>
       <c r="AQ25" s="1"/>
     </row>
-    <row r="26" spans="1:43" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:43" ht="17.25" customHeight="1">
       <c r="A26" s="13" t="s">
         <v>121</v>
       </c>
@@ -7959,7 +7917,7 @@
       <c r="AP26" s="18"/>
       <c r="AQ26" s="1"/>
     </row>
-    <row r="27" spans="1:43" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:43" ht="17.25" customHeight="1">
       <c r="A27" s="13" t="s">
         <v>47</v>
       </c>
@@ -8028,7 +7986,7 @@
       <c r="AP27" s="18"/>
       <c r="AQ27" s="1"/>
     </row>
-    <row r="28" spans="1:43" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:43" ht="18.75" thickBot="1">
       <c r="A28" s="8" t="s">
         <v>134</v>
       </c>
@@ -8099,19 +8057,19 @@
       <c r="AP28" s="1"/>
       <c r="AQ28" s="1"/>
     </row>
-    <row r="29" spans="1:43" ht="18" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:43" ht="18">
       <c r="A29" s="396" t="s">
         <v>110</v>
       </c>
-      <c r="B29" s="604" t="s">
+      <c r="B29" s="565" t="s">
         <v>111</v>
       </c>
-      <c r="C29" s="605"/>
-      <c r="D29" s="605"/>
-      <c r="E29" s="605"/>
-      <c r="F29" s="605"/>
-      <c r="G29" s="605"/>
-      <c r="H29" s="606"/>
+      <c r="C29" s="566"/>
+      <c r="D29" s="566"/>
+      <c r="E29" s="566"/>
+      <c r="F29" s="566"/>
+      <c r="G29" s="566"/>
+      <c r="H29" s="567"/>
       <c r="I29" s="104"/>
       <c r="J29" s="57"/>
       <c r="K29" s="55"/>
@@ -8148,7 +8106,7 @@
       <c r="AP29" s="1"/>
       <c r="AQ29" s="1"/>
     </row>
-    <row r="30" spans="1:43" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:43" ht="16.5" customHeight="1">
       <c r="A30" s="159" t="s">
         <v>115</v>
       </c>
@@ -8207,7 +8165,7 @@
       <c r="AP30" s="2"/>
       <c r="AQ30" s="1"/>
     </row>
-    <row r="31" spans="1:43" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:43" ht="16.5" customHeight="1">
       <c r="A31" s="11" t="s">
         <v>51</v>
       </c>
@@ -8260,7 +8218,7 @@
       <c r="AP31" s="2"/>
       <c r="AQ31" s="1"/>
     </row>
-    <row r="32" spans="1:43" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:43" ht="16.5" customHeight="1">
       <c r="A32" s="519" t="s">
         <v>70</v>
       </c>
@@ -8315,7 +8273,7 @@
       <c r="AP32" s="2"/>
       <c r="AQ32" s="1"/>
     </row>
-    <row r="33" spans="1:43" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:43" ht="16.5" customHeight="1">
       <c r="A33" s="519" t="s">
         <v>67</v>
       </c>
@@ -8390,7 +8348,7 @@
       <c r="AP33" s="2"/>
       <c r="AQ33" s="1"/>
     </row>
-    <row r="34" spans="1:43" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:43" ht="19.5" customHeight="1" thickBot="1">
       <c r="A34" s="8" t="s">
         <v>59</v>
       </c>
@@ -8481,7 +8439,7 @@
       <c r="AP34" s="2"/>
       <c r="AQ34" s="1"/>
     </row>
-    <row r="35" spans="1:43" ht="18" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:43" ht="18">
       <c r="A35" s="472" t="s">
         <v>13</v>
       </c>
@@ -8535,7 +8493,7 @@
       <c r="AO35" s="93"/>
       <c r="AP35" s="1"/>
     </row>
-    <row r="36" spans="1:43" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:43" ht="18.75" customHeight="1">
       <c r="A36" s="519" t="s">
         <v>143</v>
       </c>
@@ -8591,7 +8549,7 @@
       <c r="AO36" s="94"/>
       <c r="AP36" s="95"/>
     </row>
-    <row r="37" spans="1:43" ht="18" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:43" ht="18">
       <c r="A37" s="473" t="s">
         <v>14</v>
       </c>
@@ -8655,7 +8613,9 @@
       <c r="AI37" s="57" t="s">
         <v>79</v>
       </c>
-      <c r="AJ37" s="43"/>
+      <c r="AJ37" s="43" t="s">
+        <v>77</v>
+      </c>
       <c r="AK37" s="43" t="s">
         <v>77</v>
       </c>
@@ -8665,7 +8625,7 @@
       <c r="AO37" s="411"/>
       <c r="AP37" s="1"/>
     </row>
-    <row r="38" spans="1:43" ht="18" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:43" ht="18">
       <c r="A38" s="473" t="s">
         <v>136</v>
       </c>
@@ -8731,7 +8691,7 @@
       <c r="AO38" s="1"/>
       <c r="AP38" s="1"/>
     </row>
-    <row r="39" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:43" ht="15.75" customHeight="1">
       <c r="A39" s="473" t="s">
         <v>123</v>
       </c>
@@ -8785,7 +8745,7 @@
       <c r="AO39" s="18"/>
       <c r="AP39" s="1"/>
     </row>
-    <row r="40" spans="1:43" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:43" ht="16.5" customHeight="1" thickBot="1">
       <c r="A40" s="474" t="s">
         <v>16</v>
       </c>
@@ -8839,7 +8799,7 @@
       <c r="AO40" s="18"/>
       <c r="AP40" s="1"/>
     </row>
-    <row r="41" spans="1:43" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:43" ht="16.5" customHeight="1">
       <c r="A41" s="472" t="s">
         <v>128</v>
       </c>
@@ -8893,7 +8853,7 @@
       </c>
       <c r="AP41" s="1"/>
     </row>
-    <row r="42" spans="1:43" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:43" ht="17.25" customHeight="1">
       <c r="A42" s="473" t="s">
         <v>129</v>
       </c>
@@ -8909,12 +8869,12 @@
       <c r="K42" s="57" t="s">
         <v>76</v>
       </c>
-      <c r="L42" s="601" t="s">
+      <c r="L42" s="562" t="s">
         <v>132</v>
       </c>
-      <c r="M42" s="602"/>
-      <c r="N42" s="602"/>
-      <c r="O42" s="603"/>
+      <c r="M42" s="563"/>
+      <c r="N42" s="563"/>
+      <c r="O42" s="564"/>
       <c r="P42" s="314"/>
       <c r="Q42" s="479" t="s">
         <v>76</v>
@@ -8977,7 +8937,7 @@
       <c r="AO42" s="1"/>
       <c r="AP42" s="1"/>
     </row>
-    <row r="43" spans="1:43" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:43" ht="18" customHeight="1">
       <c r="A43" s="473" t="s">
         <v>130</v>
       </c>
@@ -9063,19 +9023,19 @@
       </c>
       <c r="AP43" s="1"/>
     </row>
-    <row r="44" spans="1:43" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:43" ht="17.25" customHeight="1">
       <c r="A44" s="473" t="s">
         <v>144</v>
       </c>
       <c r="B44" s="54"/>
       <c r="C44" s="47"/>
       <c r="D44" s="47"/>
-      <c r="E44" s="576" t="s">
+      <c r="E44" s="585" t="s">
         <v>83</v>
       </c>
-      <c r="F44" s="577"/>
-      <c r="G44" s="593"/>
-      <c r="H44" s="594"/>
+      <c r="F44" s="586"/>
+      <c r="G44" s="554"/>
+      <c r="H44" s="555"/>
       <c r="I44" s="48"/>
       <c r="J44" s="92"/>
       <c r="K44" s="43"/>
@@ -9083,21 +9043,21 @@
       <c r="M44" s="444" t="s">
         <v>84</v>
       </c>
-      <c r="N44" s="599" t="s">
+      <c r="N44" s="560" t="s">
         <v>95</v>
       </c>
-      <c r="O44" s="600"/>
+      <c r="O44" s="561"/>
       <c r="P44" s="307"/>
       <c r="Q44" s="264"/>
       <c r="R44" s="43"/>
       <c r="S44" s="43"/>
-      <c r="T44" s="595"/>
-      <c r="U44" s="596"/>
-      <c r="V44" s="597"/>
-      <c r="W44" s="598"/>
+      <c r="T44" s="556"/>
+      <c r="U44" s="557"/>
+      <c r="V44" s="558"/>
+      <c r="W44" s="559"/>
       <c r="X44" s="340"/>
-      <c r="Y44" s="595"/>
-      <c r="Z44" s="596"/>
+      <c r="Y44" s="556"/>
+      <c r="Z44" s="557"/>
       <c r="AA44" s="457"/>
       <c r="AB44" s="422" t="s">
         <v>89</v>
@@ -9105,10 +9065,10 @@
       <c r="AC44" s="423" t="s">
         <v>89</v>
       </c>
-      <c r="AD44" s="599" t="s">
+      <c r="AD44" s="560" t="s">
         <v>95</v>
       </c>
-      <c r="AE44" s="600"/>
+      <c r="AE44" s="561"/>
       <c r="AF44" s="353"/>
       <c r="AG44" s="279"/>
       <c r="AH44" s="239"/>
@@ -9129,7 +9089,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="1:43" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:43" ht="17.25" customHeight="1" thickBot="1">
       <c r="A45" s="473" t="s">
         <v>124</v>
       </c>
@@ -9179,7 +9139,7 @@
       <c r="AO45" s="20"/>
       <c r="AP45" s="20"/>
     </row>
-    <row r="46" spans="1:43" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:43" ht="16.5" customHeight="1" thickBot="1">
       <c r="A46" s="474" t="s">
         <v>131</v>
       </c>
@@ -9223,9 +9183,7 @@
       <c r="Y46" s="87"/>
       <c r="Z46" s="59"/>
       <c r="AA46" s="193"/>
-      <c r="AB46" s="59" t="s">
-        <v>77</v>
-      </c>
+      <c r="AB46" s="59"/>
       <c r="AC46" s="498" t="s">
         <v>135</v>
       </c>
@@ -9247,7 +9205,7 @@
       <c r="AO46" s="20"/>
       <c r="AP46" s="20"/>
     </row>
-    <row r="47" spans="1:43" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:43" ht="16.5" customHeight="1">
       <c r="A47" s="521" t="s">
         <v>74</v>
       </c>
@@ -9303,7 +9261,7 @@
       <c r="AO47" s="20"/>
       <c r="AP47" s="20"/>
     </row>
-    <row r="48" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:43" ht="15" customHeight="1">
       <c r="A48" s="519" t="s">
         <v>73</v>
       </c>
@@ -9322,12 +9280,12 @@
       <c r="J48" s="39" t="s">
         <v>76</v>
       </c>
-      <c r="K48" s="566" t="s">
+      <c r="K48" s="582" t="s">
         <v>108</v>
       </c>
-      <c r="L48" s="575"/>
-      <c r="M48" s="575"/>
-      <c r="N48" s="567"/>
+      <c r="L48" s="583"/>
+      <c r="M48" s="583"/>
+      <c r="N48" s="584"/>
       <c r="O48" s="39"/>
       <c r="P48" s="298"/>
       <c r="Q48" s="46"/>
@@ -9337,10 +9295,10 @@
       <c r="S48" s="380" t="s">
         <v>89</v>
       </c>
-      <c r="T48" s="566" t="s">
+      <c r="T48" s="582" t="s">
         <v>108</v>
       </c>
-      <c r="U48" s="567"/>
+      <c r="U48" s="584"/>
       <c r="V48" s="39"/>
       <c r="W48" s="170"/>
       <c r="X48" s="343"/>
@@ -9353,34 +9311,34 @@
       <c r="AA48" s="50" t="s">
         <v>77</v>
       </c>
-      <c r="AB48" s="556" t="s">
+      <c r="AB48" s="593" t="s">
         <v>108</v>
       </c>
-      <c r="AC48" s="557"/>
+      <c r="AC48" s="594"/>
       <c r="AD48" s="39"/>
       <c r="AE48" s="43"/>
       <c r="AF48" s="298"/>
-      <c r="AG48" s="558" t="s">
+      <c r="AG48" s="595" t="s">
         <v>112</v>
       </c>
-      <c r="AH48" s="559"/>
-      <c r="AI48" s="559"/>
-      <c r="AJ48" s="559"/>
-      <c r="AK48" s="559"/>
-      <c r="AL48" s="559"/>
-      <c r="AM48" s="560"/>
+      <c r="AH48" s="596"/>
+      <c r="AI48" s="596"/>
+      <c r="AJ48" s="596"/>
+      <c r="AK48" s="596"/>
+      <c r="AL48" s="596"/>
+      <c r="AM48" s="597"/>
       <c r="AN48" s="527"/>
       <c r="AO48" s="20"/>
       <c r="AP48" s="1"/>
     </row>
-    <row r="49" spans="1:42" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:42" ht="18.75" customHeight="1">
       <c r="A49" s="519" t="s">
         <v>18</v>
       </c>
-      <c r="B49" s="564" t="s">
+      <c r="B49" s="604" t="s">
         <v>109</v>
       </c>
-      <c r="C49" s="565"/>
+      <c r="C49" s="605"/>
       <c r="D49" s="210" t="s">
         <v>36</v>
       </c>
@@ -9447,29 +9405,29 @@
         <v>36</v>
       </c>
     </row>
-    <row r="50" spans="1:42" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:42" ht="16.5" customHeight="1" thickBot="1">
       <c r="A50" s="12" t="s">
         <v>20</v>
       </c>
       <c r="B50" s="216"/>
       <c r="C50" s="212"/>
-      <c r="D50" s="578"/>
-      <c r="E50" s="579"/>
+      <c r="D50" s="587"/>
+      <c r="E50" s="588"/>
       <c r="F50" s="101">
         <v>27</v>
       </c>
-      <c r="G50" s="582" t="s">
+      <c r="G50" s="591" t="s">
         <v>109</v>
       </c>
-      <c r="H50" s="583"/>
+      <c r="H50" s="592"/>
       <c r="I50" s="234"/>
       <c r="J50" s="175"/>
-      <c r="K50" s="568" t="s">
+      <c r="K50" s="579" t="s">
         <v>107</v>
       </c>
-      <c r="L50" s="569"/>
-      <c r="M50" s="569"/>
-      <c r="N50" s="570"/>
+      <c r="L50" s="580"/>
+      <c r="M50" s="580"/>
+      <c r="N50" s="581"/>
       <c r="O50" s="222" t="s">
         <v>82</v>
       </c>
@@ -9477,11 +9435,11 @@
       <c r="Q50" s="76"/>
       <c r="R50" s="59"/>
       <c r="S50" s="506"/>
-      <c r="T50" s="568" t="s">
+      <c r="T50" s="579" t="s">
         <v>107</v>
       </c>
-      <c r="U50" s="569"/>
-      <c r="V50" s="570"/>
+      <c r="U50" s="580"/>
+      <c r="V50" s="581"/>
       <c r="W50" s="193" t="s">
         <v>82</v>
       </c>
@@ -9506,15 +9464,15 @@
         <v>82</v>
       </c>
       <c r="AF50" s="354"/>
-      <c r="AG50" s="561" t="s">
+      <c r="AG50" s="598" t="s">
         <v>113</v>
       </c>
-      <c r="AH50" s="562"/>
-      <c r="AI50" s="562"/>
-      <c r="AJ50" s="562"/>
-      <c r="AK50" s="562"/>
-      <c r="AL50" s="562"/>
-      <c r="AM50" s="563"/>
+      <c r="AH50" s="599"/>
+      <c r="AI50" s="599"/>
+      <c r="AJ50" s="599"/>
+      <c r="AK50" s="599"/>
+      <c r="AL50" s="599"/>
+      <c r="AM50" s="600"/>
       <c r="AN50" s="526"/>
       <c r="AO50" s="24" t="s">
         <v>21</v>
@@ -9523,7 +9481,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="51" spans="1:42" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:42" ht="16.5" customHeight="1" thickBot="1">
       <c r="A51" s="14" t="s">
         <v>22</v>
       </c>
@@ -9605,7 +9563,7 @@
       <c r="AO51" s="18"/>
       <c r="AP51" s="1"/>
     </row>
-    <row r="52" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:42" ht="15" customHeight="1">
       <c r="A52" s="519" t="s">
         <v>23</v>
       </c>
@@ -9683,7 +9641,7 @@
       </c>
       <c r="AP52" s="1"/>
     </row>
-    <row r="53" spans="1:42" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:42" ht="15.75" customHeight="1" thickBot="1">
       <c r="A53" s="21" t="s">
         <v>40</v>
       </c>
@@ -9759,7 +9717,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="54" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:42" ht="15.75" customHeight="1">
       <c r="A54" s="14" t="s">
         <v>75</v>
       </c>
@@ -9843,7 +9801,7 @@
       </c>
       <c r="AP54" s="1"/>
     </row>
-    <row r="55" spans="1:42" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:42" ht="17.25" customHeight="1" thickBot="1">
       <c r="A55" s="519" t="s">
         <v>49</v>
       </c>
@@ -9928,7 +9886,7 @@
       <c r="AN55" s="525"/>
       <c r="AP55" s="1"/>
     </row>
-    <row r="56" spans="1:42" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:42" ht="17.25" customHeight="1">
       <c r="A56" s="522" t="s">
         <v>43</v>
       </c>
@@ -10008,7 +9966,7 @@
       </c>
       <c r="AP56" s="35"/>
     </row>
-    <row r="57" spans="1:42" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:42" ht="16.5" customHeight="1">
       <c r="A57" s="15" t="s">
         <v>27</v>
       </c>
@@ -10122,7 +10080,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="58" spans="1:42" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:42" ht="16.5" customHeight="1">
       <c r="A58" s="16" t="s">
         <v>28</v>
       </c>
@@ -10220,7 +10178,7 @@
       </c>
       <c r="AP58" s="1"/>
     </row>
-    <row r="59" spans="1:42" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:42" ht="16.5" customHeight="1">
       <c r="A59" s="16" t="s">
         <v>116</v>
       </c>
@@ -10322,7 +10280,7 @@
       <c r="AO59" s="426"/>
       <c r="AP59" s="1"/>
     </row>
-    <row r="60" spans="1:42" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:42" ht="17.25" customHeight="1">
       <c r="A60" s="109" t="s">
         <v>118</v>
       </c>
@@ -10402,7 +10360,7 @@
       <c r="AO60" s="425"/>
       <c r="AP60" s="1"/>
     </row>
-    <row r="61" spans="1:42" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:42" ht="16.5" customHeight="1">
       <c r="A61" s="16" t="s">
         <v>66</v>
       </c>
@@ -10484,7 +10442,7 @@
       </c>
       <c r="AP61" s="1"/>
     </row>
-    <row r="62" spans="1:42" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:42" ht="17.25" customHeight="1">
       <c r="A62" s="108" t="s">
         <v>38</v>
       </c>
@@ -10576,7 +10534,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="63" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:42" ht="15" customHeight="1">
       <c r="A63" s="160" t="s">
         <v>96</v>
       </c>
@@ -10658,7 +10616,7 @@
       <c r="AO63" s="410"/>
       <c r="AP63" s="110"/>
     </row>
-    <row r="64" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:42" ht="15.75" customHeight="1">
       <c r="A64" s="17" t="s">
         <v>29</v>
       </c>
@@ -10738,7 +10696,7 @@
       </c>
       <c r="AP64" s="18"/>
     </row>
-    <row r="65" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:42" ht="15.75" customHeight="1">
       <c r="A65" s="17" t="s">
         <v>30</v>
       </c>
@@ -10816,7 +10774,7 @@
       <c r="AO65" s="291"/>
       <c r="AP65" s="20"/>
     </row>
-    <row r="66" spans="1:42" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:42" ht="15.75" customHeight="1" thickBot="1">
       <c r="A66" s="253" t="s">
         <v>42</v>
       </c>
@@ -10894,7 +10852,7 @@
       <c r="AO66" s="138"/>
       <c r="AP66" s="1"/>
     </row>
-    <row r="67" spans="1:42" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:42" ht="10.5" customHeight="1" thickBot="1">
       <c r="A67" s="1"/>
       <c r="B67" s="154"/>
       <c r="C67" s="154"/>
@@ -10938,171 +10896,171 @@
       <c r="AO67" s="1"/>
       <c r="AP67" s="1"/>
     </row>
-    <row r="68" spans="1:42" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:42" ht="18.75" customHeight="1" thickBot="1">
       <c r="A68" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="B68" s="552" t="s">
+      <c r="B68" s="601" t="s">
         <v>18</v>
       </c>
-      <c r="C68" s="553"/>
-      <c r="D68" s="553"/>
-      <c r="E68" s="553"/>
-      <c r="F68" s="553"/>
-      <c r="G68" s="553"/>
-      <c r="H68" s="553"/>
-      <c r="I68" s="554" t="s">
+      <c r="C68" s="602"/>
+      <c r="D68" s="602"/>
+      <c r="E68" s="602"/>
+      <c r="F68" s="602"/>
+      <c r="G68" s="602"/>
+      <c r="H68" s="602"/>
+      <c r="I68" s="603" t="s">
         <v>10</v>
       </c>
-      <c r="J68" s="553"/>
-      <c r="K68" s="553"/>
-      <c r="L68" s="553"/>
-      <c r="M68" s="553"/>
-      <c r="N68" s="553"/>
-      <c r="O68" s="553"/>
+      <c r="J68" s="602"/>
+      <c r="K68" s="602"/>
+      <c r="L68" s="602"/>
+      <c r="M68" s="602"/>
+      <c r="N68" s="602"/>
+      <c r="O68" s="602"/>
       <c r="P68" s="277"/>
-      <c r="Q68" s="553" t="s">
+      <c r="Q68" s="602" t="s">
         <v>69</v>
       </c>
-      <c r="R68" s="553"/>
-      <c r="S68" s="553"/>
-      <c r="T68" s="553"/>
-      <c r="U68" s="553"/>
-      <c r="V68" s="553"/>
-      <c r="W68" s="553"/>
+      <c r="R68" s="602"/>
+      <c r="S68" s="602"/>
+      <c r="T68" s="602"/>
+      <c r="U68" s="602"/>
+      <c r="V68" s="602"/>
+      <c r="W68" s="602"/>
       <c r="X68" s="277"/>
-      <c r="Y68" s="553" t="s">
+      <c r="Y68" s="602" t="s">
         <v>75</v>
       </c>
-      <c r="Z68" s="553"/>
-      <c r="AA68" s="553"/>
-      <c r="AB68" s="553"/>
-      <c r="AC68" s="553"/>
-      <c r="AD68" s="553"/>
-      <c r="AE68" s="553"/>
+      <c r="Z68" s="602"/>
+      <c r="AA68" s="602"/>
+      <c r="AB68" s="602"/>
+      <c r="AC68" s="602"/>
+      <c r="AD68" s="602"/>
+      <c r="AE68" s="602"/>
       <c r="AF68" s="277"/>
-      <c r="AG68" s="554" t="s">
+      <c r="AG68" s="603" t="s">
         <v>73</v>
       </c>
-      <c r="AH68" s="553"/>
-      <c r="AI68" s="553"/>
-      <c r="AJ68" s="553"/>
-      <c r="AK68" s="553"/>
-      <c r="AL68" s="553"/>
-      <c r="AM68" s="555"/>
+      <c r="AH68" s="602"/>
+      <c r="AI68" s="602"/>
+      <c r="AJ68" s="602"/>
+      <c r="AK68" s="602"/>
+      <c r="AL68" s="602"/>
+      <c r="AM68" s="606"/>
       <c r="AN68" s="513"/>
       <c r="AO68" s="1"/>
       <c r="AP68" s="1"/>
     </row>
-    <row r="69" spans="1:42" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:42" ht="21" customHeight="1" thickBot="1">
       <c r="A69" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="B69" s="552" t="s">
+      <c r="B69" s="601" t="s">
         <v>14</v>
       </c>
-      <c r="C69" s="553"/>
-      <c r="D69" s="553"/>
-      <c r="E69" s="553"/>
-      <c r="F69" s="553"/>
-      <c r="G69" s="553"/>
-      <c r="H69" s="553"/>
-      <c r="I69" s="554" t="s">
+      <c r="C69" s="602"/>
+      <c r="D69" s="602"/>
+      <c r="E69" s="602"/>
+      <c r="F69" s="602"/>
+      <c r="G69" s="602"/>
+      <c r="H69" s="602"/>
+      <c r="I69" s="603" t="s">
         <v>121</v>
       </c>
-      <c r="J69" s="553"/>
-      <c r="K69" s="553"/>
-      <c r="L69" s="553"/>
-      <c r="M69" s="553"/>
-      <c r="N69" s="553"/>
-      <c r="O69" s="553"/>
+      <c r="J69" s="602"/>
+      <c r="K69" s="602"/>
+      <c r="L69" s="602"/>
+      <c r="M69" s="602"/>
+      <c r="N69" s="602"/>
+      <c r="O69" s="602"/>
       <c r="P69" s="277"/>
-      <c r="Q69" s="553" t="s">
+      <c r="Q69" s="602" t="s">
         <v>15</v>
       </c>
-      <c r="R69" s="553"/>
-      <c r="S69" s="553"/>
-      <c r="T69" s="553"/>
-      <c r="U69" s="553"/>
-      <c r="V69" s="553"/>
-      <c r="W69" s="553"/>
+      <c r="R69" s="602"/>
+      <c r="S69" s="602"/>
+      <c r="T69" s="602"/>
+      <c r="U69" s="602"/>
+      <c r="V69" s="602"/>
+      <c r="W69" s="602"/>
       <c r="X69" s="277"/>
-      <c r="Y69" s="554" t="s">
+      <c r="Y69" s="603" t="s">
         <v>121</v>
       </c>
-      <c r="Z69" s="553"/>
-      <c r="AA69" s="553"/>
-      <c r="AB69" s="553"/>
-      <c r="AC69" s="553"/>
-      <c r="AD69" s="553"/>
-      <c r="AE69" s="553"/>
+      <c r="Z69" s="602"/>
+      <c r="AA69" s="602"/>
+      <c r="AB69" s="602"/>
+      <c r="AC69" s="602"/>
+      <c r="AD69" s="602"/>
+      <c r="AE69" s="602"/>
       <c r="AF69" s="277"/>
-      <c r="AG69" s="552" t="s">
+      <c r="AG69" s="601" t="s">
         <v>16</v>
       </c>
-      <c r="AH69" s="553"/>
-      <c r="AI69" s="553"/>
-      <c r="AJ69" s="553"/>
-      <c r="AK69" s="553"/>
-      <c r="AL69" s="553"/>
-      <c r="AM69" s="553"/>
+      <c r="AH69" s="602"/>
+      <c r="AI69" s="602"/>
+      <c r="AJ69" s="602"/>
+      <c r="AK69" s="602"/>
+      <c r="AL69" s="602"/>
+      <c r="AM69" s="602"/>
       <c r="AN69" s="513"/>
     </row>
-    <row r="70" spans="1:42" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:42" ht="21" thickBot="1">
       <c r="A70" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="B70" s="552" t="s">
+      <c r="B70" s="601" t="s">
         <v>72</v>
       </c>
-      <c r="C70" s="553"/>
-      <c r="D70" s="553"/>
-      <c r="E70" s="553"/>
-      <c r="F70" s="553"/>
-      <c r="G70" s="553"/>
-      <c r="H70" s="553"/>
-      <c r="I70" s="554" t="s">
+      <c r="C70" s="602"/>
+      <c r="D70" s="602"/>
+      <c r="E70" s="602"/>
+      <c r="F70" s="602"/>
+      <c r="G70" s="602"/>
+      <c r="H70" s="602"/>
+      <c r="I70" s="603" t="s">
         <v>71</v>
       </c>
-      <c r="J70" s="553"/>
-      <c r="K70" s="553"/>
-      <c r="L70" s="553"/>
-      <c r="M70" s="553"/>
-      <c r="N70" s="553"/>
-      <c r="O70" s="553"/>
+      <c r="J70" s="602"/>
+      <c r="K70" s="602"/>
+      <c r="L70" s="602"/>
+      <c r="M70" s="602"/>
+      <c r="N70" s="602"/>
+      <c r="O70" s="602"/>
       <c r="P70" s="277"/>
-      <c r="Q70" s="553" t="s">
+      <c r="Q70" s="602" t="s">
         <v>71</v>
       </c>
-      <c r="R70" s="553"/>
-      <c r="S70" s="553"/>
-      <c r="T70" s="553"/>
-      <c r="U70" s="553"/>
-      <c r="V70" s="553"/>
-      <c r="W70" s="553"/>
+      <c r="R70" s="602"/>
+      <c r="S70" s="602"/>
+      <c r="T70" s="602"/>
+      <c r="U70" s="602"/>
+      <c r="V70" s="602"/>
+      <c r="W70" s="602"/>
       <c r="X70" s="277"/>
-      <c r="Y70" s="553" t="s">
+      <c r="Y70" s="602" t="s">
         <v>142</v>
       </c>
-      <c r="Z70" s="553"/>
-      <c r="AA70" s="553"/>
-      <c r="AB70" s="553"/>
-      <c r="AC70" s="553"/>
-      <c r="AD70" s="553"/>
-      <c r="AE70" s="553"/>
+      <c r="Z70" s="602"/>
+      <c r="AA70" s="602"/>
+      <c r="AB70" s="602"/>
+      <c r="AC70" s="602"/>
+      <c r="AD70" s="602"/>
+      <c r="AE70" s="602"/>
       <c r="AF70" s="277"/>
-      <c r="AG70" s="554" t="s">
+      <c r="AG70" s="603" t="s">
         <v>141</v>
       </c>
-      <c r="AH70" s="553"/>
-      <c r="AI70" s="553"/>
-      <c r="AJ70" s="553"/>
-      <c r="AK70" s="553"/>
-      <c r="AL70" s="553"/>
-      <c r="AM70" s="555"/>
+      <c r="AH70" s="602"/>
+      <c r="AI70" s="602"/>
+      <c r="AJ70" s="602"/>
+      <c r="AK70" s="602"/>
+      <c r="AL70" s="602"/>
+      <c r="AM70" s="606"/>
       <c r="AN70" s="513"/>
     </row>
-    <row r="72" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:42">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
@@ -11146,284 +11104,266 @@
       <c r="AO72" s="1"/>
       <c r="AP72" s="1"/>
     </row>
-    <row r="82" spans="17:19" x14ac:dyDescent="0.25">
+    <row r="82" spans="17:19">
       <c r="Q82" s="37"/>
     </row>
-    <row r="83" spans="17:19" x14ac:dyDescent="0.25">
+    <row r="83" spans="17:19">
       <c r="Q83" s="37"/>
     </row>
-    <row r="84" spans="17:19" x14ac:dyDescent="0.25">
+    <row r="84" spans="17:19">
       <c r="Q84" s="37"/>
     </row>
-    <row r="88" spans="17:19" x14ac:dyDescent="0.25">
+    <row r="88" spans="17:19">
       <c r="Q88" s="37"/>
     </row>
-    <row r="89" spans="17:19" x14ac:dyDescent="0.25">
+    <row r="89" spans="17:19">
       <c r="Q89" s="37"/>
     </row>
-    <row r="90" spans="17:19" x14ac:dyDescent="0.25">
+    <row r="90" spans="17:19">
       <c r="Q90" s="37"/>
       <c r="R90" s="37"/>
     </row>
-    <row r="91" spans="17:19" x14ac:dyDescent="0.25">
+    <row r="91" spans="17:19">
       <c r="Q91" s="37"/>
     </row>
-    <row r="92" spans="17:19" x14ac:dyDescent="0.25">
+    <row r="92" spans="17:19">
       <c r="R92" s="37"/>
     </row>
-    <row r="94" spans="17:19" x14ac:dyDescent="0.25">
+    <row r="94" spans="17:19">
       <c r="S94" s="37"/>
     </row>
-    <row r="95" spans="17:19" x14ac:dyDescent="0.25">
+    <row r="95" spans="17:19">
       <c r="R95" s="37"/>
     </row>
-    <row r="96" spans="17:19" x14ac:dyDescent="0.25">
+    <row r="96" spans="17:19">
       <c r="Q96" s="37"/>
       <c r="R96" s="37"/>
     </row>
-    <row r="97" spans="18:20" x14ac:dyDescent="0.25">
+    <row r="97" spans="18:20">
       <c r="R97" s="37"/>
     </row>
-    <row r="98" spans="18:20" x14ac:dyDescent="0.25">
+    <row r="98" spans="18:20">
       <c r="R98" s="37"/>
     </row>
-    <row r="104" spans="18:20" x14ac:dyDescent="0.25">
+    <row r="104" spans="18:20">
       <c r="T104" s="37"/>
     </row>
-    <row r="105" spans="18:20" x14ac:dyDescent="0.25">
+    <row r="105" spans="18:20">
       <c r="S105" s="37"/>
     </row>
-    <row r="106" spans="18:20" x14ac:dyDescent="0.25">
+    <row r="106" spans="18:20">
       <c r="S106" s="37"/>
     </row>
-    <row r="107" spans="18:20" x14ac:dyDescent="0.25">
+    <row r="107" spans="18:20">
       <c r="S107" s="37"/>
     </row>
-    <row r="108" spans="18:20" x14ac:dyDescent="0.25">
+    <row r="108" spans="18:20">
       <c r="S108" s="37"/>
     </row>
-    <row r="109" spans="18:20" x14ac:dyDescent="0.25">
+    <row r="109" spans="18:20">
       <c r="S109" s="37"/>
     </row>
-    <row r="110" spans="18:20" x14ac:dyDescent="0.25">
+    <row r="110" spans="18:20">
       <c r="R110" s="37"/>
       <c r="S110" s="37"/>
     </row>
-    <row r="111" spans="18:20" x14ac:dyDescent="0.25">
+    <row r="111" spans="18:20">
       <c r="R111" s="37"/>
       <c r="S111" s="37"/>
     </row>
-    <row r="112" spans="18:20" x14ac:dyDescent="0.25">
+    <row r="112" spans="18:20">
       <c r="S112" s="37"/>
     </row>
-    <row r="113" spans="15:20" x14ac:dyDescent="0.25">
+    <row r="113" spans="15:20">
       <c r="S113" s="37"/>
     </row>
-    <row r="114" spans="15:20" x14ac:dyDescent="0.25">
+    <row r="114" spans="15:20">
       <c r="S114" s="37"/>
     </row>
-    <row r="115" spans="15:20" x14ac:dyDescent="0.25">
+    <row r="115" spans="15:20">
       <c r="S115" s="37"/>
     </row>
-    <row r="116" spans="15:20" x14ac:dyDescent="0.25">
+    <row r="116" spans="15:20">
       <c r="T116" s="37"/>
     </row>
-    <row r="117" spans="15:20" x14ac:dyDescent="0.25">
+    <row r="117" spans="15:20">
       <c r="S117" s="37"/>
       <c r="T117" s="37"/>
     </row>
-    <row r="118" spans="15:20" x14ac:dyDescent="0.25">
+    <row r="118" spans="15:20">
       <c r="S118" s="37"/>
     </row>
-    <row r="120" spans="15:20" x14ac:dyDescent="0.25">
+    <row r="120" spans="15:20">
       <c r="S120" s="37"/>
     </row>
-    <row r="122" spans="15:20" x14ac:dyDescent="0.25">
+    <row r="122" spans="15:20">
       <c r="Q122" s="37"/>
       <c r="R122" s="37"/>
     </row>
-    <row r="123" spans="15:20" x14ac:dyDescent="0.25">
+    <row r="123" spans="15:20">
       <c r="R123" s="37"/>
     </row>
-    <row r="124" spans="15:20" x14ac:dyDescent="0.25">
+    <row r="124" spans="15:20">
       <c r="R124" s="37"/>
     </row>
-    <row r="125" spans="15:20" x14ac:dyDescent="0.25">
+    <row r="125" spans="15:20">
       <c r="R125" s="37"/>
       <c r="S125" s="37"/>
     </row>
-    <row r="126" spans="15:20" x14ac:dyDescent="0.25">
+    <row r="126" spans="15:20">
       <c r="O126" s="37"/>
       <c r="P126" s="37"/>
       <c r="R126" s="37"/>
     </row>
-    <row r="127" spans="15:20" x14ac:dyDescent="0.25">
+    <row r="127" spans="15:20">
       <c r="O127" s="37"/>
       <c r="P127" s="37"/>
       <c r="R127" s="37"/>
       <c r="S127" s="37"/>
     </row>
-    <row r="128" spans="15:20" x14ac:dyDescent="0.25">
+    <row r="128" spans="15:20">
       <c r="Q128" s="37"/>
       <c r="R128" s="37"/>
       <c r="S128" s="37"/>
     </row>
-    <row r="129" spans="15:24" x14ac:dyDescent="0.25">
+    <row r="129" spans="15:24">
       <c r="O129" s="37"/>
       <c r="P129" s="37"/>
       <c r="R129" s="37"/>
       <c r="S129" s="37"/>
     </row>
-    <row r="130" spans="15:24" x14ac:dyDescent="0.25">
+    <row r="130" spans="15:24">
       <c r="O130" s="37"/>
       <c r="P130" s="37"/>
       <c r="R130" s="37"/>
       <c r="S130" s="37"/>
     </row>
-    <row r="131" spans="15:24" x14ac:dyDescent="0.25">
+    <row r="131" spans="15:24">
       <c r="O131" s="37"/>
       <c r="P131" s="37"/>
       <c r="R131" s="37"/>
       <c r="S131" s="37"/>
     </row>
-    <row r="132" spans="15:24" x14ac:dyDescent="0.25">
+    <row r="132" spans="15:24">
       <c r="Q132" s="37"/>
       <c r="R132" s="37"/>
       <c r="S132" s="37"/>
       <c r="W132" s="37"/>
       <c r="X132" s="37"/>
     </row>
-    <row r="133" spans="15:24" x14ac:dyDescent="0.25">
+    <row r="133" spans="15:24">
       <c r="Q133" s="37"/>
       <c r="R133" s="37"/>
     </row>
-    <row r="134" spans="15:24" x14ac:dyDescent="0.25">
+    <row r="134" spans="15:24">
       <c r="Q134" s="37"/>
       <c r="R134" s="37"/>
     </row>
-    <row r="135" spans="15:24" x14ac:dyDescent="0.25">
+    <row r="135" spans="15:24">
       <c r="Q135" s="37"/>
       <c r="R135" s="37"/>
       <c r="T135" s="37"/>
     </row>
-    <row r="136" spans="15:24" x14ac:dyDescent="0.25">
+    <row r="136" spans="15:24">
       <c r="Q136" s="37"/>
       <c r="R136" s="37"/>
       <c r="S136" s="37"/>
       <c r="T136" s="37"/>
     </row>
-    <row r="137" spans="15:24" x14ac:dyDescent="0.25">
+    <row r="137" spans="15:24">
       <c r="O137" s="37"/>
       <c r="P137" s="37"/>
       <c r="R137" s="37"/>
     </row>
-    <row r="138" spans="15:24" x14ac:dyDescent="0.25">
+    <row r="138" spans="15:24">
       <c r="Q138" s="37"/>
       <c r="R138" s="37"/>
     </row>
-    <row r="139" spans="15:24" x14ac:dyDescent="0.25">
+    <row r="139" spans="15:24">
       <c r="Q139" s="37"/>
       <c r="R139" s="37"/>
       <c r="S139" s="37"/>
       <c r="U139" s="37"/>
     </row>
-    <row r="140" spans="15:24" x14ac:dyDescent="0.25">
+    <row r="140" spans="15:24">
       <c r="R140" s="37"/>
       <c r="S140" s="37"/>
     </row>
-    <row r="141" spans="15:24" x14ac:dyDescent="0.25">
+    <row r="141" spans="15:24">
       <c r="R141" s="37"/>
     </row>
-    <row r="142" spans="15:24" x14ac:dyDescent="0.25">
+    <row r="142" spans="15:24">
       <c r="R142" s="37"/>
       <c r="U142" s="37"/>
     </row>
-    <row r="143" spans="15:24" x14ac:dyDescent="0.25">
+    <row r="143" spans="15:24">
       <c r="Q143" s="37"/>
       <c r="R143" s="37"/>
       <c r="S143" s="37"/>
     </row>
-    <row r="144" spans="15:24" x14ac:dyDescent="0.25">
+    <row r="144" spans="15:24">
       <c r="S144" s="37"/>
     </row>
-    <row r="145" spans="19:26" x14ac:dyDescent="0.25">
+    <row r="145" spans="19:26">
       <c r="S145" s="37"/>
     </row>
-    <row r="146" spans="19:26" x14ac:dyDescent="0.25">
+    <row r="146" spans="19:26">
       <c r="S146" s="37"/>
       <c r="V146" s="37"/>
     </row>
-    <row r="147" spans="19:26" x14ac:dyDescent="0.25">
+    <row r="147" spans="19:26">
       <c r="S147" s="37"/>
       <c r="W147" s="37"/>
       <c r="X147" s="37"/>
       <c r="Y147" s="37"/>
       <c r="Z147" s="37"/>
     </row>
-    <row r="148" spans="19:26" x14ac:dyDescent="0.25">
+    <row r="148" spans="19:26">
       <c r="S148" s="37"/>
       <c r="W148" s="37"/>
       <c r="X148" s="37"/>
       <c r="Y148" s="37"/>
       <c r="Z148" s="37"/>
     </row>
-    <row r="149" spans="19:26" x14ac:dyDescent="0.25">
+    <row r="149" spans="19:26">
       <c r="W149" s="37"/>
       <c r="X149" s="37"/>
     </row>
-    <row r="150" spans="19:26" x14ac:dyDescent="0.25">
+    <row r="150" spans="19:26">
       <c r="S150" s="37"/>
       <c r="W150" s="37"/>
       <c r="X150" s="37"/>
     </row>
-    <row r="151" spans="19:26" x14ac:dyDescent="0.25">
+    <row r="151" spans="19:26">
       <c r="S151" s="37"/>
       <c r="W151" s="37"/>
       <c r="X151" s="37"/>
     </row>
-    <row r="152" spans="19:26" x14ac:dyDescent="0.25">
+    <row r="152" spans="19:26">
       <c r="S152" s="37"/>
     </row>
-    <row r="153" spans="19:26" x14ac:dyDescent="0.25">
+    <row r="153" spans="19:26">
       <c r="S153" s="37"/>
     </row>
-    <row r="154" spans="19:26" x14ac:dyDescent="0.25">
+    <row r="154" spans="19:26">
       <c r="S154" s="37"/>
     </row>
-    <row r="155" spans="19:26" x14ac:dyDescent="0.25">
+    <row r="155" spans="19:26">
       <c r="S155" s="37"/>
     </row>
-    <row r="156" spans="19:26" x14ac:dyDescent="0.25">
+    <row r="156" spans="19:26">
       <c r="S156" s="37"/>
     </row>
-    <row r="157" spans="19:26" x14ac:dyDescent="0.25">
+    <row r="157" spans="19:26">
       <c r="S157" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="AD15:AE15"/>
-    <mergeCell ref="G44:H44"/>
-    <mergeCell ref="Y44:Z44"/>
-    <mergeCell ref="V44:W44"/>
-    <mergeCell ref="AD44:AE44"/>
-    <mergeCell ref="T44:U44"/>
-    <mergeCell ref="N44:O44"/>
-    <mergeCell ref="L42:O42"/>
-    <mergeCell ref="B29:H29"/>
-    <mergeCell ref="A1:AM1"/>
-    <mergeCell ref="B2:H2"/>
-    <mergeCell ref="I2:O2"/>
-    <mergeCell ref="Q2:W2"/>
-    <mergeCell ref="Y2:AE2"/>
-    <mergeCell ref="AG2:AM2"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="N10:O10"/>
-    <mergeCell ref="K50:N50"/>
-    <mergeCell ref="K48:N48"/>
-    <mergeCell ref="E44:F44"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="G50:H50"/>
+    <mergeCell ref="B70:H70"/>
+    <mergeCell ref="I70:O70"/>
+    <mergeCell ref="Q70:W70"/>
+    <mergeCell ref="Y70:AE70"/>
+    <mergeCell ref="AG70:AM70"/>
     <mergeCell ref="AB48:AC48"/>
     <mergeCell ref="AG48:AM48"/>
     <mergeCell ref="AG50:AM50"/>
@@ -11440,11 +11380,29 @@
     <mergeCell ref="Q68:W68"/>
     <mergeCell ref="T48:U48"/>
     <mergeCell ref="T50:V50"/>
-    <mergeCell ref="B70:H70"/>
-    <mergeCell ref="I70:O70"/>
-    <mergeCell ref="Q70:W70"/>
-    <mergeCell ref="Y70:AE70"/>
-    <mergeCell ref="AG70:AM70"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="K50:N50"/>
+    <mergeCell ref="K48:N48"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="G50:H50"/>
+    <mergeCell ref="A1:AM1"/>
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="I2:O2"/>
+    <mergeCell ref="Q2:W2"/>
+    <mergeCell ref="Y2:AE2"/>
+    <mergeCell ref="AG2:AM2"/>
+    <mergeCell ref="AD15:AE15"/>
+    <mergeCell ref="G44:H44"/>
+    <mergeCell ref="Y44:Z44"/>
+    <mergeCell ref="V44:W44"/>
+    <mergeCell ref="AD44:AE44"/>
+    <mergeCell ref="T44:U44"/>
+    <mergeCell ref="N44:O44"/>
+    <mergeCell ref="L42:O42"/>
+    <mergeCell ref="B29:H29"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.55118110236220474" right="0.35433070866141736" top="0.19685039370078741" bottom="0.19685039370078741" header="0.51181102362204722" footer="0.51181102362204722"/>
@@ -11454,33 +11412,33 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:F45"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="16.42578125" customWidth="1"/>
     <col min="3" max="3" width="11.140625" customWidth="1"/>
     <col min="4" max="4" width="27.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:6" ht="18.75">
       <c r="B1" s="607" t="s">
         <v>31</v>
       </c>
       <c r="C1" s="607"/>
       <c r="D1" s="607"/>
     </row>
-    <row r="2" spans="2:6" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:6" ht="18.75" thickBot="1">
       <c r="B2" s="261"/>
       <c r="C2" s="25"/>
       <c r="D2" s="26"/>
     </row>
-    <row r="3" spans="2:6" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:6" ht="18.75" thickBot="1">
       <c r="B3" s="42"/>
       <c r="C3" s="25" t="s">
         <v>32</v>
@@ -11489,12 +11447,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="2:6" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:6" ht="18.75" thickBot="1">
       <c r="B4" s="260"/>
       <c r="C4" s="25"/>
       <c r="D4" s="26"/>
     </row>
-    <row r="5" spans="2:6" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:6" ht="18.75" thickBot="1">
       <c r="B5" s="32"/>
       <c r="C5" s="25" t="s">
         <v>32</v>
@@ -11503,12 +11461,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="2:6" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:6" ht="18.75" thickBot="1">
       <c r="B6" s="261"/>
       <c r="C6" s="25"/>
       <c r="D6" s="26"/>
     </row>
-    <row r="7" spans="2:6" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:6" ht="18.75" thickBot="1">
       <c r="B7" s="38"/>
       <c r="C7" s="25" t="s">
         <v>32</v>
@@ -11517,12 +11475,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="2:6" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:6" ht="18.75" thickBot="1">
       <c r="B8" s="261"/>
       <c r="C8" s="25"/>
       <c r="D8" s="26"/>
     </row>
-    <row r="9" spans="2:6" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:6" ht="18.75" thickBot="1">
       <c r="B9" s="459"/>
       <c r="C9" s="262" t="s">
         <v>32</v>
@@ -11531,12 +11489,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="2:6" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:6" ht="18.75" thickBot="1">
       <c r="B10" s="261"/>
       <c r="C10" s="25"/>
       <c r="D10" s="26"/>
     </row>
-    <row r="11" spans="2:6" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:6" ht="18.75" thickBot="1">
       <c r="B11" s="27"/>
       <c r="C11" s="25" t="s">
         <v>32</v>
@@ -11545,12 +11503,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="2:6" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:6" ht="18.75" thickBot="1">
       <c r="B12" s="260"/>
       <c r="C12" s="460"/>
       <c r="D12" s="26"/>
     </row>
-    <row r="13" spans="2:6" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:6" ht="18.75" thickBot="1">
       <c r="B13" s="461"/>
       <c r="C13" s="25" t="s">
         <v>32</v>
@@ -11559,13 +11517,13 @@
         <v>97</v>
       </c>
     </row>
-    <row r="14" spans="2:6" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:6" ht="18.75" thickBot="1">
       <c r="B14" s="263"/>
       <c r="C14" s="25"/>
       <c r="D14" s="36"/>
       <c r="F14" s="37"/>
     </row>
-    <row r="15" spans="2:6" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:6" ht="18.75" thickBot="1">
       <c r="B15" s="28"/>
       <c r="C15" s="25" t="s">
         <v>32</v>
@@ -11574,12 +11532,12 @@
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="2:6" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:6" ht="18.75" thickBot="1">
       <c r="B16" s="261"/>
       <c r="C16" s="25"/>
       <c r="D16" s="26"/>
     </row>
-    <row r="17" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:4" ht="18.75" thickBot="1">
       <c r="B17" s="462"/>
       <c r="C17" s="25" t="s">
         <v>32</v>
@@ -11588,12 +11546,12 @@
         <v>99</v>
       </c>
     </row>
-    <row r="18" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:4" ht="18.75" thickBot="1">
       <c r="B18" s="261"/>
       <c r="C18" s="25"/>
       <c r="D18" s="26"/>
     </row>
-    <row r="19" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:4" ht="18.75" thickBot="1">
       <c r="B19" s="445"/>
       <c r="C19" s="25" t="s">
         <v>32</v>
@@ -11602,12 +11560,12 @@
         <v>122</v>
       </c>
     </row>
-    <row r="20" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:4" ht="18.75" thickBot="1">
       <c r="B20" s="261"/>
       <c r="C20" s="25"/>
       <c r="D20" s="26"/>
     </row>
-    <row r="21" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:4" ht="18.75" thickBot="1">
       <c r="B21" s="463"/>
       <c r="C21" s="25" t="s">
         <v>32</v>
@@ -11616,12 +11574,12 @@
         <v>102</v>
       </c>
     </row>
-    <row r="22" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:4" ht="18.75" thickBot="1">
       <c r="B22" s="261"/>
       <c r="C22" s="25"/>
       <c r="D22" s="26"/>
     </row>
-    <row r="23" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:4" ht="18.75" thickBot="1">
       <c r="B23" s="464"/>
       <c r="C23" s="25" t="s">
         <v>32</v>
@@ -11630,12 +11588,12 @@
         <v>105</v>
       </c>
     </row>
-    <row r="24" spans="2:4" ht="18" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:4" ht="18">
       <c r="B24" s="550"/>
       <c r="C24" s="25"/>
       <c r="D24" s="26"/>
     </row>
-    <row r="25" spans="2:4" ht="18" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:4" ht="18">
       <c r="B25" s="551"/>
       <c r="C25" s="25" t="s">
         <v>32</v>
@@ -11644,12 +11602,12 @@
         <v>145</v>
       </c>
     </row>
-    <row r="26" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:4" ht="18.75" thickBot="1">
       <c r="B26" s="261"/>
       <c r="C26" s="25"/>
       <c r="D26" s="26"/>
     </row>
-    <row r="27" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:4" ht="18.75" thickBot="1">
       <c r="B27" s="30"/>
       <c r="C27" s="25" t="s">
         <v>32</v>
@@ -11658,12 +11616,12 @@
         <v>101</v>
       </c>
     </row>
-    <row r="28" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:4" ht="18.75" thickBot="1">
       <c r="B28" s="465"/>
       <c r="C28" s="25"/>
       <c r="D28" s="26"/>
     </row>
-    <row r="29" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:4" ht="18.75" thickBot="1">
       <c r="B29" s="29"/>
       <c r="C29" s="25" t="s">
         <v>32</v>
@@ -11672,12 +11630,12 @@
         <v>98</v>
       </c>
     </row>
-    <row r="30" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:4" ht="15.75" thickBot="1">
       <c r="B30" s="261"/>
       <c r="C30" s="261"/>
       <c r="D30" s="26"/>
     </row>
-    <row r="31" spans="2:4" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:4" ht="21" thickBot="1">
       <c r="B31" s="31"/>
       <c r="C31" s="25" t="s">
         <v>32</v>
@@ -11686,12 +11644,12 @@
         <v>34</v>
       </c>
     </row>
-    <row r="32" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:4" ht="15.75" thickBot="1">
       <c r="B32" s="261"/>
       <c r="C32" s="261"/>
       <c r="D32" s="261"/>
     </row>
-    <row r="33" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:4" ht="18.75" thickBot="1">
       <c r="B33" s="41"/>
       <c r="C33" s="25" t="s">
         <v>32</v>
@@ -11700,12 +11658,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="34" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:4" ht="15.75" thickBot="1">
       <c r="B34" s="261"/>
       <c r="C34" s="261"/>
       <c r="D34" s="26"/>
     </row>
-    <row r="35" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:4" ht="18.75" thickBot="1">
       <c r="B35" s="466"/>
       <c r="C35" s="25" t="s">
         <v>32</v>
@@ -11714,12 +11672,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="36" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:4" ht="15.75" thickBot="1">
       <c r="B36" s="261"/>
       <c r="C36" s="261"/>
       <c r="D36" s="261"/>
     </row>
-    <row r="37" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:4" ht="18.75" thickBot="1">
       <c r="B37" s="467"/>
       <c r="C37" s="25" t="s">
         <v>32</v>
@@ -11728,12 +11686,12 @@
         <v>103</v>
       </c>
     </row>
-    <row r="38" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:4" ht="15.75" thickBot="1">
       <c r="B38" s="261"/>
       <c r="C38" s="261"/>
       <c r="D38" s="261"/>
     </row>
-    <row r="39" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:4" ht="18.75" thickBot="1">
       <c r="B39" s="468"/>
       <c r="C39" s="25" t="s">
         <v>32</v>
@@ -11742,8 +11700,8 @@
         <v>104</v>
       </c>
     </row>
-    <row r="40" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="41" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:4" ht="15.75" thickBot="1"/>
+    <row r="41" spans="2:4" ht="18.75" thickBot="1">
       <c r="B41" s="469"/>
       <c r="C41" s="25" t="s">
         <v>32</v>
@@ -11752,8 +11710,8 @@
         <v>125</v>
       </c>
     </row>
-    <row r="42" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="43" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:4" ht="15.75" thickBot="1"/>
+    <row r="43" spans="2:4" ht="18.75" thickBot="1">
       <c r="B43" s="470"/>
       <c r="C43" s="25" t="s">
         <v>32</v>
@@ -11762,8 +11720,8 @@
         <v>126</v>
       </c>
     </row>
-    <row r="44" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="45" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:4" ht="15.75" thickBot="1"/>
+    <row r="45" spans="2:4" ht="18.75" thickBot="1">
       <c r="B45" s="471"/>
       <c r="C45" s="25" t="s">
         <v>32</v>
